--- a/Firmware/v1.8/LCD - EEPROM - Layout - Firm v14.xlsx
+++ b/Firmware/v1.8/LCD - EEPROM - Layout - Firm v14.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LCD" sheetId="1" r:id="rId1"/>
     <sheet name="EEPROM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="99">
   <si>
     <t>01</t>
   </si>
@@ -310,6 +310,9 @@
   <si>
     <t>Key Light</t>
   </si>
+  <si>
+    <t>Ext Light</t>
+  </si>
 </sst>
 </file>
 
@@ -477,7 +480,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
+      <alignment horizontal="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,8 +786,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AF154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="X151" sqref="X151:Y159"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="Q159" sqref="Q159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6644,8 +6647,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:EE34"/>
   <sheetViews>
-    <sheetView topLeftCell="DK16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="EI20" sqref="EI20"/>
+    <sheetView tabSelected="1" topLeftCell="DK16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DZ33" sqref="DZ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23105,7 +23108,7 @@
         <f t="shared" si="226"/>
         <v>4090</v>
       </c>
-      <c r="EA33" s="12">
+      <c r="EA33" s="18">
         <f t="shared" si="226"/>
         <v>4091</v>
       </c>
@@ -23126,7 +23129,10 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="34" spans="1:135" ht="57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:135" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EA34" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="EB34" s="19" t="s">
         <v>97</v>
       </c>

--- a/Firmware/v1.8/LCD - EEPROM - Layout - Firm v14.xlsx
+++ b/Firmware/v1.8/LCD - EEPROM - Layout - Firm v14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="LCD" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="99">
   <si>
     <t>01</t>
   </si>
@@ -784,10 +784,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AF154"/>
+  <dimension ref="A1:AF166"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="Q159" sqref="Q159"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="U167" sqref="U167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6636,6 +6636,421 @@
         <v>44</v>
       </c>
     </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U156" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+      <c r="U157" s="6"/>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K158" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L158" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M158" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N158" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O158" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P158" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q158" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R158" s="6"/>
+      <c r="S158" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T158" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U158" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="6"/>
+      <c r="T159" s="6"/>
+      <c r="U159" s="6"/>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6"/>
+      <c r="T160" s="6"/>
+      <c r="U160" s="6"/>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U162" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O163" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P163" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T163" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U163" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="6"/>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J165" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K165" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L165" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M165" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N165" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q165" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R165" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S165" s="6"/>
+      <c r="T165" s="6"/>
+      <c r="U165" s="6"/>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q166" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R166" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S166" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T166" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U166" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6647,7 +7062,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:EE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DK16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="DK16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="DZ33" sqref="DZ33"/>
     </sheetView>
   </sheetViews>

--- a/Firmware/v1.8/LCD - EEPROM - Layout - Firm v14.xlsx
+++ b/Firmware/v1.8/LCD - EEPROM - Layout - Firm v14.xlsx
@@ -787,7 +787,7 @@
   <dimension ref="A1:AF166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="U167" sqref="U167"/>
+      <selection activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6942,14 +6942,13 @@
         <v>44</v>
       </c>
       <c r="Q163" s="6"/>
-      <c r="R163" s="6"/>
+      <c r="R163" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="S163" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="T163" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U163" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6963,52 +6962,42 @@
       <c r="A165" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="E165" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="F165" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="G165" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="H165" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F165" s="6" t="s">
+      <c r="I165" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G165" s="6" t="s">
+      <c r="J165" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6" t="s">
+      <c r="K165" s="6"/>
+      <c r="L165" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J165" s="6" t="s">
+      <c r="M165" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K165" s="6" t="s">
+      <c r="N165" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L165" s="6" t="s">
+      <c r="O165" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M165" s="6" t="s">
+      <c r="P165" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N165" s="6" t="s">
+      <c r="Q165" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="O165" s="6"/>
-      <c r="P165" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q165" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R165" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="S165" s="6"/>
       <c r="T165" s="6"/>
@@ -7020,34 +7009,32 @@
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
+      <c r="F166" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="I166" s="6"/>
-      <c r="J166" s="6"/>
-      <c r="K166" s="6"/>
-      <c r="L166" s="6"/>
-      <c r="M166" s="6"/>
-      <c r="N166" s="6"/>
-      <c r="O166" s="6"/>
-      <c r="P166" s="6" t="s">
+      <c r="J166" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q166" s="6" t="s">
+      <c r="K166" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R166" s="6" t="s">
+      <c r="L166" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S166" s="6" t="s">
+      <c r="M166" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T166" s="6" t="s">
+      <c r="N166" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="U166" s="6" t="s">
+      <c r="O166" s="6" t="s">
         <v>56</v>
       </c>
     </row>
